--- a/biology/Zoologie/Cryptodira/Cryptodira.xlsx
+++ b/biology/Zoologie/Cryptodira/Cryptodira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cryptodira, en français cryptodires, sont un sous-ordre des Testudines, il inclut les tortues terrestres, toutes les tortues marines, et certaines tortues d’eau douce[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cryptodira, en français cryptodires, sont un sous-ordre des Testudines, il inclut les tortues terrestres, toutes les tortues marines, et certaines tortues d’eau douce.
 On les nomme cryptodires car leur tête, lorsqu'elle se rétracte conserve son orientation initiale, contrairement aux pleurodires qui plient leur cou. Pleurodires et Cryptodires se différencient également par la relation entre leur bassin et leur carapace. Le fonctionnement des mâchoires différencie également les deux sous-ordres.
 Les cryptodires ont évolué principalement vers la fin du Jurassique, et ont presque totalement remplacé les Pleurodires dans les lacs et les fleuves, tout en commençant à développer des espèces sur terre.
 </t>
@@ -513,7 +525,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Super-famille Testudinoidea
 † Haichemydidae
@@ -566,13 +580,15 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification présentée ici est celle de Meylan &amp; Ganko, 1988 [de Meylan &amp; Ganko, 1997, Meylan, 2001] et Parham &amp; Hutchison, 2003, et Parham, 2005[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification présentée ici est celle de Meylan &amp; Ganko, 1988 [de Meylan &amp; Ganko, 1997, Meylan, 2001] et Parham &amp; Hutchison, 2003, et Parham, 2005
 --o Casichelydia
   |--o Pleurodira
   `--o Cryptodira Dumeril &amp; Bibron, 1835
-     |--o †Kayentachelyidae Gaffney, Hutchison, Jenkins &amp; Meeker, 1987[3]
+     |--o †Kayentachelyidae Gaffney, Hutchison, Jenkins &amp; Meeker, 1987
      |--o †Indochelyidae Datta, Manna, Ghosh &amp; Das, 2000
      `--o Selmacryptodira Gaffney, Hutchinson, Jenkins &amp; Meeker, 1987
         |--o †Paracryptodira
@@ -625,7 +641,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope , 1868 : On the origin of genera. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 242–300 (texte intégral).</t>
         </is>
